--- a/Final_Project/ENVIAR AO PROF/Calibration_Round_3.xlsx
+++ b/Final_Project/ENVIAR AO PROF/Calibration_Round_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UC\2018-2019\1º Semestre\Sensores Inteligentes\SI_Repo_ESM\Final_Project\ENVIAR AO PROF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A1C57D-15BE-410E-80FA-86A1FB7D819F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D6827F-47F6-461E-89EE-20C91655C702}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" xr2:uid="{4F2E7271-D480-4AAD-AFFE-CC0E7DE058FF}"/>
   </bookViews>
@@ -177,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -244,17 +244,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,55 +485,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -559,13 +539,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,6 +688,31 @@
                   <c:y val="0.35644696804848131"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>y = 253.17ln(x) - 52.857</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2487,7 +2501,7 @@
   <dimension ref="B1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,12 +2528,12 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -2537,16 +2551,16 @@
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2554,183 +2568,183 @@
       <c r="B4" s="8">
         <v>350</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <f>ROUND(AVERAGE('350'!A:A),0)</f>
         <v>1529</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f>ROUND(AVERAGE('350'!B:B),0)</f>
         <v>902</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <f>ROUND(AVERAGE('350'!C:C),0)</f>
         <v>1174</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <f>ROUND(AVERAGE('350'!D:D),0)</f>
         <v>1056</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="20">
         <f>_xlfn.STDEV.P('350'!A:A)</f>
         <v>30.693656442662014</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="26">
         <f>_xlfn.STDEV.P('350'!B:B)</f>
         <v>38.823863214867551</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="26">
         <f>_xlfn.STDEV.P('350'!C:C)</f>
         <v>95.432495288529054</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="23">
         <f>_xlfn.STDEV.P('350'!D:D)</f>
         <v>90.830552753000944</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>1100</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f>ROUND(AVERAGE('1100'!A:A),0)</f>
         <v>1669</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <f>ROUND(AVERAGE('1100'!B:B),0)</f>
         <v>1606</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <f>ROUND(AVERAGE('1100'!C:C),0)</f>
         <v>2050</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <f>ROUND(AVERAGE('1100'!D:D),0)</f>
         <v>1971</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="21">
         <f>_xlfn.STDEV.P('1100'!A:A)</f>
         <v>117.51472671927556</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="27">
         <f>_xlfn.STDEV.P('1100'!B:B)</f>
         <v>65.007350099259796</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="27">
         <f>_xlfn.STDEV.P('1100'!C:C)</f>
         <v>118.49504746062134</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="24">
         <f>_xlfn.STDEV.P('1100'!D:D)</f>
         <v>123.53897425301601</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>2700</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <f>ROUND(AVERAGE('2700'!A:A),0)</f>
         <v>1817</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <f>ROUND(AVERAGE('2700'!B:B),0)</f>
         <v>2221</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <f>ROUND(AVERAGE('2700'!C:C),0)</f>
         <v>2871</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <f>ROUND(AVERAGE('2700'!D:D),0)</f>
         <v>2738</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="21">
         <f>_xlfn.STDEV.P('2700'!A:A)</f>
         <v>32.9175731688293</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="27">
         <f>_xlfn.STDEV.P('2700'!B:B)</f>
         <v>77.886508550225756</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="27">
         <f>_xlfn.STDEV.P('2700'!C:C)</f>
         <v>104.64843599013403</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="24">
         <f>_xlfn.STDEV.P('2700'!D:D)</f>
         <v>116.47991929156007</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
         <v>4700</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <f>ROUND(AVERAGE('4700'!A:A),0)</f>
         <v>2018</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <f>ROUND(AVERAGE('4700'!B:B),0)</f>
         <v>2688</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <f>ROUND(AVERAGE('4700'!C:C),0)</f>
         <v>3233</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <f>ROUND(AVERAGE('4700'!D:D),0)</f>
         <v>3191</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="21">
         <f>_xlfn.STDEV.P('4700'!A:A)</f>
         <v>46.123462083795737</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="27">
         <f>_xlfn.STDEV.P('4700'!B:B)</f>
         <v>76.410335688796664</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="27">
         <f>_xlfn.STDEV.P('4700'!C:C)</f>
         <v>85.400412371141769</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="24">
         <f>_xlfn.STDEV.P('4700'!D:D)</f>
         <v>94.110137564633987</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
+      <c r="B8" s="32">
         <v>9670</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <f>ROUND(AVERAGE('9670'!A:A),0)</f>
         <v>2423</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <f>ROUND(AVERAGE('9670'!B:B),0)</f>
         <v>3268</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f>ROUND(AVERAGE('9670'!C:C),0)</f>
         <v>3602</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f>ROUND(AVERAGE('9670'!D:D),0)</f>
         <v>3624</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="22">
         <f>_xlfn.STDEV.P('9670'!A:A)</f>
         <v>62.80206339532004</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="28">
         <f>_xlfn.STDEV.P('9670'!B:B)</f>
         <v>61.437839696527952</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="28">
         <f>_xlfn.STDEV.P('9670'!C:C)</f>
         <v>56.067388859986465</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="25">
         <f>_xlfn.STDEV.P('9670'!D:D)</f>
         <v>57.341837526672023</v>
       </c>
